--- a/data_files/08July2024_SampleSheet.xlsx
+++ b/data_files/08July2024_SampleSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="143">
   <si>
     <t>[Header]</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>index reads</t>
+  </si>
+  <si>
+    <t>22ARS_BGH0065</t>
   </si>
 </sst>
 </file>
@@ -1058,6 +1061,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1070,8 +1075,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1538,10 +1541,10 @@
       <c r="J19" t="s">
         <v>140</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="2">
         <v>834</v>
       </c>
@@ -1574,10 +1577,10 @@
       <c r="J20" s="6">
         <v>1.3015000000000001</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="3">
         <v>94.27</v>
       </c>
@@ -1610,10 +1613,10 @@
       <c r="J21" s="7">
         <v>3.2282999999999999</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="4">
         <v>0.91890000000000005</v>
       </c>
@@ -1646,10 +1649,10 @@
       <c r="J22" s="7">
         <v>2.3626999999999998</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="3">
         <v>4.82</v>
       </c>
@@ -1682,10 +1685,10 @@
       <c r="J23" s="7">
         <v>5.4725999999999999</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2228,7 +2231,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,13 +2273,13 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2305,7 +2308,7 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6">
@@ -2337,7 +2340,7 @@
       <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="7">
@@ -2369,7 +2372,7 @@
       <c r="H4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="7">
@@ -2401,7 +2404,7 @@
       <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="7">
@@ -2433,7 +2436,7 @@
       <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="7">
@@ -2465,7 +2468,7 @@
       <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="7">
@@ -2497,7 +2500,7 @@
       <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="7">
@@ -2529,7 +2532,7 @@
       <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="7">
@@ -2561,7 +2564,7 @@
       <c r="H10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="7">
@@ -2593,7 +2596,7 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="7">
@@ -2625,7 +2628,7 @@
       <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="7">
@@ -2657,7 +2660,7 @@
       <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="7">
@@ -2689,7 +2692,7 @@
       <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="7">
@@ -2721,7 +2724,7 @@
       <c r="H15" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="7">
@@ -2730,10 +2733,10 @@
     </row>
     <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>110</v>
@@ -2753,7 +2756,7 @@
       <c r="H16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="7">
@@ -2785,7 +2788,7 @@
       <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="7">
@@ -2817,7 +2820,7 @@
       <c r="H18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="7">
@@ -2849,7 +2852,7 @@
       <c r="H19" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K19" s="7">
@@ -2881,7 +2884,7 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="7">
@@ -2913,7 +2916,7 @@
       <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="7">
@@ -2945,7 +2948,7 @@
       <c r="H22" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="7">
@@ -2977,7 +2980,7 @@
       <c r="H23" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="7">
